--- a/seasonal_water_distribution_urban_demand.xlsx
+++ b/seasonal_water_distribution_urban_demand.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -88,7 +88,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -98,6 +98,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -131,7 +132,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2447,11 +2447,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="111719936"/>
-        <c:axId val="128693376"/>
+        <c:axId val="76374784"/>
+        <c:axId val="76376704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="111719936"/>
+        <c:axId val="76374784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2493,7 +2493,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="128693376"/>
+        <c:crossAx val="76376704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2501,7 +2501,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="128693376"/>
+        <c:axId val="76376704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2552,7 +2552,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="111719936"/>
+        <c:crossAx val="76374784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2566,7 +2566,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3479,7 +3478,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -3489,8 +3488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K369"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F367"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3543,6 +3542,10 @@
       <c r="E2" s="2">
         <v>1</v>
       </c>
+      <c r="F2" s="5">
+        <f>E2</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="3" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A3">
@@ -3558,6 +3561,10 @@
         <v>0</v>
       </c>
       <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <f t="shared" ref="F3:F66" si="0">E3</f>
         <v>1</v>
       </c>
     </row>
@@ -3577,6 +3584,10 @@
       <c r="E4" s="2">
         <v>1</v>
       </c>
+      <c r="F4" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="5" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A5">
@@ -3594,6 +3605,10 @@
       <c r="E5" s="2">
         <v>1</v>
       </c>
+      <c r="F5" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A6">
@@ -3611,6 +3626,10 @@
       <c r="E6" s="2">
         <v>1</v>
       </c>
+      <c r="F6" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A7">
@@ -3628,6 +3647,10 @@
       <c r="E7" s="2">
         <v>1</v>
       </c>
+      <c r="F7" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A8">
@@ -3645,6 +3668,10 @@
       <c r="E8" s="2">
         <v>1</v>
       </c>
+      <c r="F8" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A9">
@@ -3662,6 +3689,10 @@
       <c r="E9" s="2">
         <v>1</v>
       </c>
+      <c r="F9" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="10" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A10">
@@ -3679,6 +3710,10 @@
       <c r="E10" s="2">
         <v>1</v>
       </c>
+      <c r="F10" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A11">
@@ -3696,6 +3731,10 @@
       <c r="E11" s="2">
         <v>1</v>
       </c>
+      <c r="F11" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A12">
@@ -3713,6 +3752,10 @@
       <c r="E12" s="2">
         <v>1</v>
       </c>
+      <c r="F12" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A13">
@@ -3730,6 +3773,10 @@
       <c r="E13" s="2">
         <v>1</v>
       </c>
+      <c r="F13" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A14">
@@ -3747,6 +3794,10 @@
       <c r="E14" s="2">
         <v>1</v>
       </c>
+      <c r="F14" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A15">
@@ -3764,6 +3815,10 @@
       <c r="E15" s="2">
         <v>1</v>
       </c>
+      <c r="F15" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A16">
@@ -3781,8 +3836,12 @@
       <c r="E16" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F16" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3798,8 +3857,12 @@
       <c r="E17" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F17" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3815,8 +3878,12 @@
       <c r="E18" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F18" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3832,8 +3899,12 @@
       <c r="E19" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F19" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -3849,8 +3920,12 @@
       <c r="E20" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F20" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -3866,8 +3941,12 @@
       <c r="E21" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F21" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>20</v>
       </c>
@@ -3883,8 +3962,12 @@
       <c r="E22" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F22" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>21</v>
       </c>
@@ -3900,8 +3983,12 @@
       <c r="E23" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F23" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>22</v>
       </c>
@@ -3917,8 +4004,12 @@
       <c r="E24" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F24" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>23</v>
       </c>
@@ -3934,8 +4025,12 @@
       <c r="E25" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F25" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>24</v>
       </c>
@@ -3951,8 +4046,12 @@
       <c r="E26" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F26" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>25</v>
       </c>
@@ -3968,8 +4067,12 @@
       <c r="E27" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F27" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>26</v>
       </c>
@@ -3985,8 +4088,12 @@
       <c r="E28" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" ht="14.45" x14ac:dyDescent="0.3">
+      <c r="F28" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="14.45" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>27</v>
       </c>
@@ -4002,8 +4109,12 @@
       <c r="E29" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F29" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -4019,8 +4130,12 @@
       <c r="E30" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -4036,8 +4151,12 @@
       <c r="E31" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -4053,8 +4172,12 @@
       <c r="E32" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F32" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -4070,8 +4193,12 @@
       <c r="E33" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F33" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -4087,8 +4214,12 @@
       <c r="E34" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F34" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -4104,8 +4235,12 @@
       <c r="E35" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F35" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -4121,8 +4256,12 @@
       <c r="E36" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F36" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -4138,8 +4277,12 @@
       <c r="E37" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F37" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -4155,8 +4298,12 @@
       <c r="E38" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F38" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -4172,8 +4319,12 @@
       <c r="E39" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F39" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -4189,8 +4340,12 @@
       <c r="E40" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F40" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -4206,8 +4361,12 @@
       <c r="E41" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F41" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -4223,8 +4382,12 @@
       <c r="E42" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F42" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -4240,8 +4403,12 @@
       <c r="E43" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F43" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -4257,8 +4424,12 @@
       <c r="E44" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F44" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -4274,8 +4445,12 @@
       <c r="E45" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F45" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -4291,8 +4466,12 @@
       <c r="E46" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F46" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -4308,8 +4487,12 @@
       <c r="E47" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F47" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -4325,8 +4508,12 @@
       <c r="E48" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F48" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -4342,8 +4529,12 @@
       <c r="E49" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F49" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -4359,8 +4550,12 @@
       <c r="E50" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F50" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
@@ -4376,8 +4571,12 @@
       <c r="E51" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F51" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
@@ -4393,8 +4592,12 @@
       <c r="E52" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F52" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
@@ -4410,8 +4613,12 @@
       <c r="E53" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F53" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -4427,8 +4634,12 @@
       <c r="E54" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F54" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
@@ -4444,8 +4655,12 @@
       <c r="E55" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F55" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
@@ -4461,8 +4676,12 @@
       <c r="E56" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F56" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -4478,8 +4697,12 @@
       <c r="E57" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F57" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
@@ -4495,8 +4718,12 @@
       <c r="E58" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F58" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -4512,8 +4739,12 @@
       <c r="E59" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F59" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
       </c>
@@ -4529,8 +4760,12 @@
       <c r="E60" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F60" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -4546,8 +4781,12 @@
       <c r="E61" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F61" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
       </c>
@@ -4563,8 +4802,12 @@
       <c r="E62" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F62" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -4580,8 +4823,12 @@
       <c r="E63" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F63" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
       </c>
@@ -4597,8 +4844,12 @@
       <c r="E64" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F64" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -4614,8 +4865,12 @@
       <c r="E65" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F65" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
@@ -4631,8 +4886,12 @@
       <c r="E66" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F66" s="5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
@@ -4648,8 +4907,12 @@
       <c r="E67" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F67" s="5">
+        <f t="shared" ref="F67:F130" si="1">E67</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -4665,8 +4928,12 @@
       <c r="E68" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F68" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
@@ -4682,8 +4949,12 @@
       <c r="E69" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F69" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
@@ -4699,8 +4970,12 @@
       <c r="E70" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F70" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -4716,8 +4991,12 @@
       <c r="E71" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F71" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
@@ -4733,8 +5012,12 @@
       <c r="E72" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F72" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -4750,8 +5033,12 @@
       <c r="E73" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F73" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
@@ -4767,8 +5054,12 @@
       <c r="E74" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F74" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
@@ -4784,8 +5075,12 @@
       <c r="E75" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F75" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -4801,8 +5096,12 @@
       <c r="E76" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F76" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -4818,8 +5117,12 @@
       <c r="E77" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F77" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>76</v>
       </c>
@@ -4835,8 +5138,12 @@
       <c r="E78" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F78" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -4852,8 +5159,12 @@
       <c r="E79" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F79" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>78</v>
       </c>
@@ -4869,8 +5180,12 @@
       <c r="E80" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F80" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
       </c>
@@ -4886,8 +5201,12 @@
       <c r="E81" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F81" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>80</v>
       </c>
@@ -4903,8 +5222,12 @@
       <c r="E82" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F82" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -4920,8 +5243,12 @@
       <c r="E83" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F83" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
       </c>
@@ -4937,8 +5264,12 @@
       <c r="E84" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F84" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
       </c>
@@ -4954,8 +5285,12 @@
       <c r="E85" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F85" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
       </c>
@@ -4971,8 +5306,12 @@
       <c r="E86" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F86" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
       </c>
@@ -4988,8 +5327,12 @@
       <c r="E87" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F87" s="5">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
       </c>
@@ -5005,8 +5348,12 @@
       <c r="E88" s="2">
         <v>0.99450444812952854</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F88" s="5">
+        <f t="shared" si="1"/>
+        <v>0.99450444812952854</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
       </c>
@@ -5022,8 +5369,12 @@
       <c r="E89" s="2">
         <v>0.99324422798938505</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F89" s="5">
+        <f t="shared" si="1"/>
+        <v>0.99324422798938505</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>88</v>
       </c>
@@ -5039,8 +5390,12 @@
       <c r="E90" s="2">
         <v>0.99174926285204024</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F90" s="5">
+        <f t="shared" si="1"/>
+        <v>0.99174926285204024</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
       </c>
@@ -5056,8 +5411,12 @@
       <c r="E91" s="2">
         <v>0.99004619191544418</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F91" s="5">
+        <f t="shared" si="1"/>
+        <v>0.99004619191544418</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>90</v>
       </c>
@@ -5073,8 +5432,12 @@
       <c r="E92" s="2">
         <v>0.98816971396306641</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F92" s="5">
+        <f t="shared" si="1"/>
+        <v>0.98816971396306641</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
       </c>
@@ -5090,8 +5453,12 @@
       <c r="E93" s="2">
         <v>0.98616068490028752</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F93" s="5">
+        <f t="shared" si="1"/>
+        <v>0.98616068490028752</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
       </c>
@@ -5107,8 +5474,12 @@
       <c r="E94" s="2">
         <v>0.98406395912737521</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F94" s="5">
+        <f t="shared" si="1"/>
+        <v>0.98406395912737521</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
       </c>
@@ -5124,8 +5495,12 @@
       <c r="E95" s="2">
         <v>0.98192612612027885</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F95" s="5">
+        <f t="shared" si="1"/>
+        <v>0.98192612612027885</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
       </c>
@@ -5141,8 +5516,12 @@
       <c r="E96" s="2">
         <v>0.97979326752003015</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F96" s="5">
+        <f t="shared" si="1"/>
+        <v>0.97979326752003015</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -5158,8 +5537,12 @@
       <c r="E97" s="2">
         <v>0.97770882872651288</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F97" s="5">
+        <f t="shared" si="1"/>
+        <v>0.97770882872651288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
@@ -5175,8 +5558,12 @@
       <c r="E98" s="2">
         <v>0.97571167304537565</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F98" s="5">
+        <f t="shared" si="1"/>
+        <v>0.97571167304537565</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
@@ -5192,8 +5579,12 @@
       <c r="E99" s="2">
         <v>0.97383436923336464</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F99" s="5">
+        <f t="shared" si="1"/>
+        <v>0.97383436923336464</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
@@ -5209,8 +5600,12 @@
       <c r="E100" s="2">
         <v>0.97210175469760018</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F100" s="5">
+        <f t="shared" si="1"/>
+        <v>0.97210175469760018</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
@@ -5226,8 +5621,12 @@
       <c r="E101" s="2">
         <v>0.97052981420287654</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F101" s="5">
+        <f t="shared" si="1"/>
+        <v>0.97052981420287654</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
@@ -5243,8 +5642,12 @@
       <c r="E102" s="2">
         <v>0.96912491508435572</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F102" s="5">
+        <f t="shared" si="1"/>
+        <v>0.96912491508435572</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
@@ -5260,8 +5663,12 @@
       <c r="E103" s="2">
         <v>0.96788344100774459</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F103" s="5">
+        <f t="shared" si="1"/>
+        <v>0.96788344100774459</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
@@ -5277,8 +5684,12 @@
       <c r="E104" s="2">
         <v>0.96679186150308394</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F104" s="5">
+        <f t="shared" si="1"/>
+        <v>0.96679186150308394</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
@@ -5294,8 +5705,12 @@
       <c r="E105" s="2">
         <v>0.96582725961953986</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F105" s="5">
+        <f t="shared" si="1"/>
+        <v>0.96582725961953986</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
@@ -5311,8 +5726,12 @@
       <c r="E106" s="2">
         <v>0.96495831532242304</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F106" s="5">
+        <f t="shared" si="1"/>
+        <v>0.96495831532242304</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
@@ -5328,8 +5747,12 @@
       <c r="E107" s="2">
         <v>0.96414671093576265</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F107" s="5">
+        <f t="shared" si="1"/>
+        <v>0.96414671093576265</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
@@ -5345,8 +5768,12 @@
       <c r="E108" s="2">
         <v>0.96334889105717814</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F108" s="5">
+        <f t="shared" si="1"/>
+        <v>0.96334889105717814</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
@@ -5362,8 +5789,12 @@
       <c r="E109" s="2">
         <v>0.96251807691131241</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F109" s="5">
+        <f t="shared" si="1"/>
+        <v>0.96251807691131241</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -5379,8 +5810,12 @@
       <c r="E110" s="2">
         <v>0.96160640856785395</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F110" s="5">
+        <f t="shared" si="1"/>
+        <v>0.96160640856785395</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>109</v>
       </c>
@@ -5396,8 +5831,12 @@
       <c r="E111" s="2">
         <v>0.96056707417537801</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F111" s="5">
+        <f t="shared" si="1"/>
+        <v>0.96056707417537801</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>110</v>
       </c>
@@ -5413,8 +5852,12 @@
       <c r="E112" s="2">
         <v>0.95935628627091818</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="5">
+        <f t="shared" si="1"/>
+        <v>0.95935628627091818</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>111</v>
       </c>
@@ -5430,8 +5873,12 @@
       <c r="E113" s="2">
         <v>0.95793498085784434</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="5">
+        <f t="shared" si="1"/>
+        <v>0.95793498085784434</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>112</v>
       </c>
@@ -5447,8 +5894,12 @@
       <c r="E114" s="2">
         <v>0.95627014190324888</v>
       </c>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F114" s="5">
+        <f t="shared" si="1"/>
+        <v>0.95627014190324888</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>113</v>
       </c>
@@ -5464,8 +5915,12 @@
       <c r="E115" s="2">
         <v>0.95433568904203936</v>
       </c>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F115" s="5">
+        <f t="shared" si="1"/>
+        <v>0.95433568904203936</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>114</v>
       </c>
@@ -5481,8 +5936,12 @@
       <c r="E116" s="2">
         <v>0.95211290631919421</v>
       </c>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F116" s="5">
+        <f t="shared" si="1"/>
+        <v>0.95211290631919421</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>115</v>
       </c>
@@ -5498,8 +5957,12 @@
       <c r="E117" s="2">
         <v>0.94959043072338667</v>
       </c>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F117" s="5">
+        <f t="shared" si="1"/>
+        <v>0.94959043072338667</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>116</v>
       </c>
@@ -5515,8 +5978,12 @@
       <c r="E118" s="2">
         <v>0.94676385546376685</v>
       </c>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="5">
+        <f t="shared" si="1"/>
+        <v>0.94676385546376685</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>117</v>
       </c>
@@ -5532,8 +5999,12 @@
       <c r="E119" s="2">
         <v>0.94363503202675125</v>
       </c>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="5">
+        <f t="shared" si="1"/>
+        <v>0.94363503202675125</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>118</v>
       </c>
@@ -5549,8 +6020,12 @@
       <c r="E120" s="2">
         <v>0.94021117641866914</v>
       </c>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="5">
+        <f t="shared" si="1"/>
+        <v>0.94021117641866914</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>119</v>
       </c>
@@ -5566,8 +6041,12 @@
       <c r="E121" s="2">
         <v>0.93650389854485006</v>
       </c>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="5">
+        <f t="shared" si="1"/>
+        <v>0.93650389854485006</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>120</v>
       </c>
@@ -5583,8 +6062,12 @@
       <c r="E122" s="2">
         <v>0.93252827681409245</v>
       </c>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="5">
+        <f t="shared" si="1"/>
+        <v>0.93252827681409245</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>121</v>
       </c>
@@ -5600,8 +6083,12 @@
       <c r="E123" s="2">
         <v>0.92830208955968274</v>
       </c>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="5">
+        <f t="shared" si="1"/>
+        <v>0.92830208955968274</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>122</v>
       </c>
@@ -5617,8 +6104,12 @@
       <c r="E124" s="2">
         <v>0.92384528922589404</v>
       </c>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="5">
+        <f t="shared" si="1"/>
+        <v>0.92384528922589404</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>123</v>
       </c>
@@ -5634,8 +6125,12 @@
       <c r="E125" s="2">
         <v>0.91917976622054054</v>
       </c>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="5">
+        <f t="shared" si="1"/>
+        <v>0.91917976622054054</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>124</v>
       </c>
@@ -5651,8 +6146,12 @@
       <c r="E126" s="2">
         <v>0.91432939987730355</v>
       </c>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="5">
+        <f t="shared" si="1"/>
+        <v>0.91432939987730355</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>125</v>
       </c>
@@ -5668,8 +6167,12 @@
       <c r="E127" s="2">
         <v>0.90932033829776848</v>
       </c>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="5">
+        <f t="shared" si="1"/>
+        <v>0.90932033829776848</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>126</v>
       </c>
@@ -5685,8 +6188,12 @@
       <c r="E128" s="2">
         <v>0.90418139423974653</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="5">
+        <f t="shared" si="1"/>
+        <v>0.90418139423974653</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>127</v>
       </c>
@@ -5702,8 +6209,12 @@
       <c r="E129" s="2">
         <v>0.89894440127840547</v>
       </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="5">
+        <f t="shared" si="1"/>
+        <v>0.89894440127840547</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>128</v>
       </c>
@@ -5719,8 +6230,12 @@
       <c r="E130" s="2">
         <v>0.8936443544781224</v>
       </c>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="5">
+        <f t="shared" si="1"/>
+        <v>0.8936443544781224</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>129</v>
       </c>
@@ -5736,8 +6251,12 @@
       <c r="E131" s="2">
         <v>0.88831917050729425</v>
       </c>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="5">
+        <f t="shared" ref="F131:F194" si="2">E131</f>
+        <v>0.88831917050729425</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>130</v>
       </c>
@@ -5753,8 +6272,12 @@
       <c r="E132" s="2">
         <v>0.88300894454163548</v>
       </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="5">
+        <f t="shared" si="2"/>
+        <v>0.88300894454163548</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>131</v>
       </c>
@@ -5770,8 +6293,12 @@
       <c r="E133" s="2">
         <v>0.8777546498217601</v>
       </c>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="5">
+        <f t="shared" si="2"/>
+        <v>0.8777546498217601</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>132</v>
       </c>
@@ -5787,8 +6314,12 @@
       <c r="E134" s="2">
         <v>0.87259631200906762</v>
       </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="5">
+        <f t="shared" si="2"/>
+        <v>0.87259631200906762</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>133</v>
       </c>
@@ -5804,8 +6335,12 @@
       <c r="E135" s="2">
         <v>0.86757078138583854</v>
       </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="5">
+        <f t="shared" si="2"/>
+        <v>0.86757078138583854</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>134</v>
       </c>
@@ -5821,8 +6356,12 @@
       <c r="E136" s="2">
         <v>0.86270930726067296</v>
       </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="5">
+        <f t="shared" si="2"/>
+        <v>0.86270930726067296</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>135</v>
       </c>
@@ -5838,8 +6377,12 @@
       <c r="E137" s="2">
         <v>0.85803517687963693</v>
       </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="5">
+        <f t="shared" si="2"/>
+        <v>0.85803517687963693</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>136</v>
       </c>
@@ -5855,8 +6398,12 @@
       <c r="E138" s="2">
         <v>0.85356170550312915</v>
       </c>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="5">
+        <f t="shared" si="2"/>
+        <v>0.85356170550312915</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>137</v>
       </c>
@@ -5872,8 +6419,12 @@
       <c r="E139" s="2">
         <v>0.84929085237460633</v>
       </c>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="5">
+        <f t="shared" si="2"/>
+        <v>0.84929085237460633</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>138</v>
       </c>
@@ -5889,8 +6440,12 @@
       <c r="E140" s="2">
         <v>0.84521269218313511</v>
       </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="5">
+        <f t="shared" si="2"/>
+        <v>0.84521269218313511</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>139</v>
       </c>
@@ -5906,8 +6461,12 @@
       <c r="E141" s="2">
         <v>0.84130589598470229</v>
       </c>
-    </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F141" s="5">
+        <f t="shared" si="2"/>
+        <v>0.84130589598470229</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>140</v>
       </c>
@@ -5923,8 +6482,12 @@
       <c r="E142" s="2">
         <v>0.83753927594317912</v>
       </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F142" s="5">
+        <f t="shared" si="2"/>
+        <v>0.83753927594317912</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>141</v>
       </c>
@@ -5940,8 +6503,12 @@
       <c r="E143" s="2">
         <v>0.83387433166726621</v>
       </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F143" s="5">
+        <f t="shared" si="2"/>
+        <v>0.83387433166726621</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>142</v>
       </c>
@@ -5957,8 +6524,12 @@
       <c r="E144" s="2">
         <v>0.83026861304008881</v>
       </c>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F144" s="5">
+        <f t="shared" si="2"/>
+        <v>0.83026861304008881</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>143</v>
       </c>
@@ -5974,8 +6545,12 @@
       <c r="E145" s="2">
         <v>0.82667960097113313</v>
       </c>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F145" s="5">
+        <f t="shared" si="2"/>
+        <v>0.82667960097113313</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>144</v>
       </c>
@@ -5991,8 +6566,12 @@
       <c r="E146" s="2">
         <v>0.82306871768808154</v>
       </c>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F146" s="5">
+        <f t="shared" si="2"/>
+        <v>0.82306871768808154</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>145</v>
       </c>
@@ -6008,8 +6587,12 @@
       <c r="E147" s="2">
         <v>0.81940502604135068</v>
       </c>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F147" s="5">
+        <f t="shared" si="2"/>
+        <v>0.81940502604135068</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>146</v>
       </c>
@@ -6025,8 +6608,12 @@
       <c r="E148" s="2">
         <v>0.81566817805420544</v>
       </c>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F148" s="5">
+        <f t="shared" si="2"/>
+        <v>0.81566817805420544</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>147</v>
       </c>
@@ -6042,8 +6629,12 @@
       <c r="E149" s="2">
         <v>0.81185023389902289</v>
       </c>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F149" s="5">
+        <f t="shared" si="2"/>
+        <v>0.81185023389902289</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>148</v>
       </c>
@@ -6059,8 +6650,12 @@
       <c r="E150" s="2">
         <v>0.80795609300888427</v>
       </c>
-    </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F150" s="5">
+        <f t="shared" si="2"/>
+        <v>0.80795609300888427</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>149</v>
       </c>
@@ -6076,8 +6671,12 @@
       <c r="E151" s="2">
         <v>0.80400244554713574</v>
       </c>
-    </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F151" s="5">
+        <f t="shared" si="2"/>
+        <v>0.80400244554713574</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>150</v>
       </c>
@@ -6093,8 +6692,12 @@
       <c r="E152" s="2">
         <v>0.80001533715184336</v>
       </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F152" s="5">
+        <f t="shared" si="2"/>
+        <v>0.80001533715184336</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>151</v>
       </c>
@@ -6110,8 +6713,12 @@
       <c r="E153" s="2">
         <v>0.79602661484533754</v>
       </c>
-    </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F153" s="5">
+        <f t="shared" si="2"/>
+        <v>0.79602661484533754</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>152</v>
       </c>
@@ -6127,8 +6734,12 @@
       <c r="E154" s="2">
         <v>0.7920696619981753</v>
       </c>
-    </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F154" s="5">
+        <f t="shared" si="2"/>
+        <v>0.7920696619981753</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>153</v>
       </c>
@@ -6144,8 +6755,12 @@
       <c r="E155" s="2">
         <v>0.78817491546974405</v>
       </c>
-    </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F155" s="5">
+        <f t="shared" si="2"/>
+        <v>0.78817491546974405</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>154</v>
       </c>
@@ -6161,8 +6776,12 @@
       <c r="E156" s="2">
         <v>0.78436568007684182</v>
       </c>
-    </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F156" s="5">
+        <f t="shared" si="2"/>
+        <v>0.78436568007684182</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>155</v>
       </c>
@@ -6178,8 +6797,12 @@
       <c r="E157" s="2">
         <v>0.7806547148784494</v>
       </c>
-    </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F157" s="5">
+        <f t="shared" si="2"/>
+        <v>0.7806547148784494</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>156</v>
       </c>
@@ -6195,8 +6818,12 @@
       <c r="E158" s="2">
         <v>0.7770419720178402</v>
       </c>
-    </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F158" s="5">
+        <f t="shared" si="2"/>
+        <v>0.7770419720178402</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>157</v>
       </c>
@@ -6212,8 +6839,12 @@
       <c r="E159" s="2">
         <v>0.77351374055983102</v>
       </c>
-    </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F159" s="5">
+        <f t="shared" si="2"/>
+        <v>0.77351374055983102</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>158</v>
       </c>
@@ -6229,8 +6860,12 @@
       <c r="E160" s="2">
         <v>0.77004329923679049</v>
       </c>
-    </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F160" s="5">
+        <f t="shared" si="2"/>
+        <v>0.77004329923679049</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>159</v>
       </c>
@@ -6246,8 +6881,12 @@
       <c r="E161" s="2">
         <v>0.76659302469553947</v>
       </c>
-    </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F161" s="5">
+        <f t="shared" si="2"/>
+        <v>0.76659302469553947</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>160</v>
       </c>
@@ -6263,8 +6902,12 @@
       <c r="E162" s="2">
         <v>0.76311774691541623</v>
       </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F162" s="5">
+        <f t="shared" si="2"/>
+        <v>0.76311774691541623</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>161</v>
       </c>
@@ -6280,8 +6923,12 @@
       <c r="E163" s="2">
         <v>0.7595690047575111</v>
       </c>
-    </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F163" s="5">
+        <f t="shared" si="2"/>
+        <v>0.7595690047575111</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>162</v>
       </c>
@@ -6297,8 +6944,12 @@
       <c r="E164" s="2">
         <v>0.75589974872156629</v>
       </c>
-    </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F164" s="5">
+        <f t="shared" si="2"/>
+        <v>0.75589974872156629</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>163</v>
       </c>
@@ -6314,8 +6965,12 @@
       <c r="E165" s="2">
         <v>0.7520689811116944</v>
       </c>
-    </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F165" s="5">
+        <f t="shared" si="2"/>
+        <v>0.7520689811116944</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>164</v>
       </c>
@@ -6331,8 +6986,12 @@
       <c r="E166" s="2">
         <v>0.74804582458422231</v>
       </c>
-    </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F166" s="5">
+        <f t="shared" si="2"/>
+        <v>0.74804582458422231</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>165</v>
       </c>
@@ -6348,8 +7007,12 @@
       <c r="E167" s="2">
         <v>0.74381257267437739</v>
       </c>
-    </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F167" s="5">
+        <f t="shared" si="2"/>
+        <v>0.74381257267437739</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>166</v>
       </c>
@@ -6365,8 +7028,12 @@
       <c r="E168" s="2">
         <v>0.73936639673507687</v>
       </c>
-    </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F168" s="5">
+        <f t="shared" si="2"/>
+        <v>0.73936639673507687</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>167</v>
       </c>
@@ -6382,8 +7049,12 @@
       <c r="E169" s="2">
         <v>0.73471954869897393</v>
       </c>
-    </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F169" s="5">
+        <f t="shared" si="2"/>
+        <v>0.73471954869897393</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>168</v>
       </c>
@@ -6399,8 +7070,12 @@
       <c r="E170" s="2">
         <v>0.72989808103078369</v>
       </c>
-    </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F170" s="5">
+        <f t="shared" si="2"/>
+        <v>0.72989808103078369</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>169</v>
       </c>
@@ -6416,8 +7091,12 @@
       <c r="E171" s="2">
         <v>0.72493927298057681</v>
       </c>
-    </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F171" s="5">
+        <f t="shared" si="2"/>
+        <v>0.72493927298057681</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>170</v>
       </c>
@@ -6433,8 +7112,12 @@
       <c r="E172" s="2">
         <v>0.7198880794863991</v>
       </c>
-    </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F172" s="5">
+        <f t="shared" si="2"/>
+        <v>0.7198880794863991</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>171</v>
       </c>
@@ -6450,8 +7133,12 @@
       <c r="E173" s="2">
         <v>0.7147929939492994</v>
       </c>
-    </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F173" s="5">
+        <f t="shared" si="2"/>
+        <v>0.7147929939492994</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>172</v>
       </c>
@@ -6467,8 +7154,12 @@
       <c r="E174" s="2">
         <v>0.7097017395699442</v>
       </c>
-    </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F174" s="5">
+        <f t="shared" si="2"/>
+        <v>0.7097017395699442</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>173</v>
       </c>
@@ -6484,8 +7175,12 @@
       <c r="E175" s="2">
         <v>0.7046571840094098</v>
       </c>
-    </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F175" s="5">
+        <f t="shared" si="2"/>
+        <v>0.7046571840094098</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>174</v>
       </c>
@@ -6501,8 +7196,12 @@
       <c r="E176" s="2">
         <v>0.69969381921538265</v>
       </c>
-    </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F176" s="5">
+        <f t="shared" si="2"/>
+        <v>0.69969381921538265</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>175</v>
       </c>
@@ -6518,8 +7217,12 @@
       <c r="E177" s="2">
         <v>0.69483507777386588</v>
       </c>
-    </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F177" s="5">
+        <f t="shared" si="2"/>
+        <v>0.69483507777386588</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>176</v>
       </c>
@@ -6535,8 +7238,12 @@
       <c r="E178" s="2">
         <v>0.69009168225474193</v>
       </c>
-    </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F178" s="5">
+        <f t="shared" si="2"/>
+        <v>0.69009168225474193</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>177</v>
       </c>
@@ -6552,8 +7259,12 @@
       <c r="E179" s="2">
         <v>0.68546115195114288</v>
       </c>
-    </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F179" s="5">
+        <f t="shared" si="2"/>
+        <v>0.68546115195114288</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>178</v>
       </c>
@@ -6569,8 +7280,12 @@
       <c r="E180" s="2">
         <v>0.68092851944895139</v>
       </c>
-    </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F180" s="5">
+        <f t="shared" si="2"/>
+        <v>0.68092851944895139</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>179</v>
       </c>
@@ -6586,8 +7301,12 @@
       <c r="E181" s="2">
         <v>0.67646822820119401</v>
       </c>
-    </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F181" s="5">
+        <f t="shared" si="2"/>
+        <v>0.67646822820119401</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>180</v>
       </c>
@@ -6603,8 +7322,12 @@
       <c r="E182" s="2">
         <v>0.67204708635789867</v>
       </c>
-    </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F182" s="5">
+        <f t="shared" si="2"/>
+        <v>0.67204708635789867</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>181</v>
       </c>
@@ -6620,8 +7343,12 @@
       <c r="E183" s="2">
         <v>0.66762804736291015</v>
       </c>
-    </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F183" s="5">
+        <f t="shared" si="2"/>
+        <v>0.66762804736291015</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>182</v>
       </c>
@@ -6637,8 +7364,12 @@
       <c r="E184" s="2">
         <v>0.66317448458896655</v>
       </c>
-    </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F184" s="5">
+        <f t="shared" si="2"/>
+        <v>0.66317448458896655</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>183</v>
       </c>
@@ -6654,8 +7385,12 @@
       <c r="E185" s="2">
         <v>0.65865454080327523</v>
       </c>
-    </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F185" s="5">
+        <f t="shared" si="2"/>
+        <v>0.65865454080327523</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>184</v>
       </c>
@@ -6671,8 +7406,12 @@
       <c r="E186" s="2">
         <v>0.65404508172536968</v>
       </c>
-    </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F186" s="5">
+        <f t="shared" si="2"/>
+        <v>0.65404508172536968</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>185</v>
       </c>
@@ -6688,8 +7427,12 @@
       <c r="E187" s="2">
         <v>0.64933478752892371</v>
       </c>
-    </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F187" s="5">
+        <f t="shared" si="2"/>
+        <v>0.64933478752892371</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>186</v>
       </c>
@@ -6705,8 +7448,12 @@
       <c r="E188" s="2">
         <v>0.64452599462618709</v>
       </c>
-    </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F188" s="5">
+        <f t="shared" si="2"/>
+        <v>0.64452599462618709</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>187</v>
       </c>
@@ -6722,8 +7469,12 @@
       <c r="E189" s="2">
         <v>0.63963505270883536</v>
       </c>
-    </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F189" s="5">
+        <f t="shared" si="2"/>
+        <v>0.63963505270883536</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>188</v>
       </c>
@@ -6739,8 +7490,12 @@
       <c r="E190" s="2">
         <v>0.63469116274585657</v>
       </c>
-    </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F190" s="5">
+        <f t="shared" si="2"/>
+        <v>0.63469116274585657</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>189</v>
       </c>
@@ -6756,8 +7511,12 @@
       <c r="E191" s="2">
         <v>0.62973387168538419</v>
       </c>
-    </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F191" s="5">
+        <f t="shared" si="2"/>
+        <v>0.62973387168538419</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>190</v>
       </c>
@@ -6773,8 +7532,12 @@
       <c r="E192" s="2">
         <v>0.62480957911568846</v>
       </c>
-    </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F192" s="5">
+        <f t="shared" si="2"/>
+        <v>0.62480957911568846</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>191</v>
       </c>
@@ -6790,8 +7553,12 @@
       <c r="E193" s="2">
         <v>0.61996753076815669</v>
       </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F193" s="5">
+        <f t="shared" si="2"/>
+        <v>0.61996753076815669</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>192</v>
       </c>
@@ -6807,8 +7574,12 @@
       <c r="E194" s="2">
         <v>0.61525581611484126</v>
       </c>
-    </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F194" s="5">
+        <f t="shared" si="2"/>
+        <v>0.61525581611484126</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>193</v>
       </c>
@@ -6824,8 +7595,12 @@
       <c r="E195" s="2">
         <v>0.61071784813235985</v>
       </c>
-    </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F195" s="5">
+        <f t="shared" ref="F195:F258" si="3">E195</f>
+        <v>0.61071784813235985</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>194</v>
       </c>
@@ -6841,8 +7616,12 @@
       <c r="E196" s="2">
         <v>0.60638969452822333</v>
       </c>
-    </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F196" s="5">
+        <f t="shared" si="3"/>
+        <v>0.60638969452822333</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>195</v>
       </c>
@@ -6858,8 +7637,12 @@
       <c r="E197" s="2">
         <v>0.60229848071964809</v>
       </c>
-    </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F197" s="5">
+        <f t="shared" si="3"/>
+        <v>0.60229848071964809</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>196</v>
       </c>
@@ -6875,8 +7658,12 @@
       <c r="E198" s="2">
         <v>0.59846192651119934</v>
       </c>
-    </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F198" s="5">
+        <f t="shared" si="3"/>
+        <v>0.59846192651119934</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>197</v>
       </c>
@@ -6892,8 +7679,12 @@
       <c r="E199" s="2">
         <v>0.59488893475114413</v>
       </c>
-    </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F199" s="5">
+        <f t="shared" si="3"/>
+        <v>0.59488893475114413</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>198</v>
       </c>
@@ -6909,8 +7700,12 @@
       <c r="E200" s="2">
         <v>0.59158103338083479</v>
       </c>
-    </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F200" s="5">
+        <f t="shared" si="3"/>
+        <v>0.59158103338083479</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>199</v>
       </c>
@@ -6926,8 +7721,12 @@
       <c r="E201" s="2">
         <v>0.58853438943173142</v>
       </c>
-    </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F201" s="5">
+        <f t="shared" si="3"/>
+        <v>0.58853438943173142</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>200</v>
       </c>
@@ -6943,8 +7742,12 @@
       <c r="E202" s="2">
         <v>0.58574207121815192</v>
       </c>
-    </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F202" s="5">
+        <f t="shared" si="3"/>
+        <v>0.58574207121815192</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>201</v>
       </c>
@@ -6960,8 +7763,12 @@
       <c r="E203" s="2">
         <v>0.58319623737388915</v>
       </c>
-    </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F203" s="5">
+        <f t="shared" si="3"/>
+        <v>0.58319623737388915</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>202</v>
       </c>
@@ -6977,8 +7784,12 @@
       <c r="E204" s="2">
         <v>0.58088997325931047</v>
       </c>
-    </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F204" s="5">
+        <f t="shared" si="3"/>
+        <v>0.58088997325931047</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>203</v>
       </c>
@@ -6994,8 +7805,12 @@
       <c r="E205" s="2">
         <v>0.57881856723975067</v>
       </c>
-    </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F205" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57881856723975067</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>204</v>
       </c>
@@ -7011,8 +7826,12 @@
       <c r="E206" s="2">
         <v>0.5769801093951713</v>
       </c>
-    </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F206" s="5">
+        <f t="shared" si="3"/>
+        <v>0.5769801093951713</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>205</v>
       </c>
@@ -7028,8 +7847,12 @@
       <c r="E207" s="2">
         <v>0.57537539383814551</v>
       </c>
-    </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F207" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57537539383814551</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>206</v>
       </c>
@@ -7045,8 +7868,12 @@
       <c r="E208" s="2">
         <v>0.57400720245386483</v>
       </c>
-    </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F208" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57400720245386483</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>207</v>
       </c>
@@ -7062,8 +7889,12 @@
       <c r="E209" s="2">
         <v>0.57287912980233391</v>
       </c>
-    </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F209" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57287912980233391</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>208</v>
       </c>
@@ -7079,8 +7910,12 @@
       <c r="E210" s="2">
         <v>0.57199416395580638</v>
       </c>
-    </row>
-    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F210" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57199416395580638</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>209</v>
       </c>
@@ -7096,8 +7931,12 @@
       <c r="E211" s="2">
         <v>0.57135326164141709</v>
       </c>
-    </row>
-    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F211" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57135326164141709</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>210</v>
       </c>
@@ -7113,8 +7952,12 @@
       <c r="E212" s="2">
         <v>0.57095414906563458</v>
       </c>
-    </row>
-    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F212" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57095414906563458</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>211</v>
       </c>
@@ -7130,8 +7973,12 @@
       <c r="E213" s="2">
         <v>0.57079054760350301</v>
       </c>
-    </row>
-    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F213" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57079054760350301</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>212</v>
       </c>
@@ -7147,8 +7994,12 @@
       <c r="E214" s="2">
         <v>0.57085196964562501</v>
       </c>
-    </row>
-    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F214" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57085196964562501</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>213</v>
       </c>
@@ -7164,8 +8015,12 @@
       <c r="E215" s="2">
         <v>0.57112415776706948</v>
       </c>
-    </row>
-    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F215" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57112415776706948</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>214</v>
       </c>
@@ -7181,8 +8036,12 @@
       <c r="E216" s="2">
         <v>0.57159015606977948</v>
       </c>
-    </row>
-    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F216" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57159015606977948</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>215</v>
       </c>
@@ -7198,8 +8057,12 @@
       <c r="E217" s="2">
         <v>0.57223191577381272</v>
       </c>
-    </row>
-    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F217" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57223191577381272</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>216</v>
       </c>
@@ -7215,8 +8078,12 @@
       <c r="E218" s="2">
         <v>0.57303225771212263</v>
       </c>
-    </row>
-    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F218" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57303225771212263</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>217</v>
       </c>
@@ -7232,8 +8099,12 @@
       <c r="E219" s="2">
         <v>0.57397695248248259</v>
       </c>
-    </row>
-    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F219" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57397695248248259</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>218</v>
       </c>
@@ -7249,8 +8120,12 @@
       <c r="E220" s="2">
         <v>0.57505664289091418</v>
       </c>
-    </row>
-    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F220" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57505664289091418</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>219</v>
       </c>
@@ -7266,8 +8141,12 @@
       <c r="E221" s="2">
         <v>0.57626833193676319</v>
       </c>
-    </row>
-    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F221" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57626833193676319</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>220</v>
       </c>
@@ -7283,8 +8162,12 @@
       <c r="E222" s="2">
         <v>0.57761619898882277</v>
       </c>
-    </row>
-    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F222" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57761619898882277</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>221</v>
       </c>
@@ -7300,8 +8183,12 @@
       <c r="E223" s="2">
         <v>0.57911158563816423</v>
       </c>
-    </row>
-    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F223" s="5">
+        <f t="shared" si="3"/>
+        <v>0.57911158563816423</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>222</v>
       </c>
@@ -7317,8 +8204,12 @@
       <c r="E224" s="2">
         <v>0.58077209959738052</v>
       </c>
-    </row>
-    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F224" s="5">
+        <f t="shared" si="3"/>
+        <v>0.58077209959738052</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>223</v>
       </c>
@@ -7334,8 +8225,12 @@
       <c r="E225" s="2">
         <v>0.58261990245070649</v>
       </c>
-    </row>
-    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F225" s="5">
+        <f t="shared" si="3"/>
+        <v>0.58261990245070649</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>224</v>
       </c>
@@ -7351,8 +8246,12 @@
       <c r="E226" s="2">
         <v>0.58467935548035221</v>
       </c>
-    </row>
-    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F226" s="5">
+        <f t="shared" si="3"/>
+        <v>0.58467935548035221</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>225</v>
       </c>
@@ -7368,8 +8267,12 @@
       <c r="E227" s="2">
         <v>0.58697428175869626</v>
       </c>
-    </row>
-    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F227" s="5">
+        <f t="shared" si="3"/>
+        <v>0.58697428175869626</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>226</v>
       </c>
@@ -7385,8 +8288,12 @@
       <c r="E228" s="2">
         <v>0.58952515116166448</v>
       </c>
-    </row>
-    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F228" s="5">
+        <f t="shared" si="3"/>
+        <v>0.58952515116166448</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>227</v>
       </c>
@@ -7402,8 +8309,12 @@
       <c r="E229" s="2">
         <v>0.59234650252766308</v>
       </c>
-    </row>
-    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F229" s="5">
+        <f t="shared" si="3"/>
+        <v>0.59234650252766308</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>228</v>
       </c>
@@ -7419,8 +8330,12 @@
       <c r="E230" s="2">
         <v>0.59544488467906265</v>
       </c>
-    </row>
-    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F230" s="5">
+        <f t="shared" si="3"/>
+        <v>0.59544488467906265</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>229</v>
       </c>
@@ -7436,8 +8351,12 @@
       <c r="E231" s="2">
         <v>0.59881753294366702</v>
       </c>
-    </row>
-    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F231" s="5">
+        <f t="shared" si="3"/>
+        <v>0.59881753294366702</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>230</v>
       </c>
@@ -7453,8 +8372,12 @@
       <c r="E232" s="2">
         <v>0.6024519109875548</v>
       </c>
-    </row>
-    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F232" s="5">
+        <f t="shared" si="3"/>
+        <v>0.6024519109875548</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>231</v>
       </c>
@@ -7470,8 +8393,12 @@
       <c r="E233" s="2">
         <v>0.60632615098612275</v>
       </c>
-    </row>
-    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F233" s="5">
+        <f t="shared" si="3"/>
+        <v>0.60632615098612275</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>232</v>
       </c>
@@ -7487,8 +8414,12 @@
       <c r="E234" s="2">
         <v>0.61041032815764473</v>
       </c>
-    </row>
-    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F234" s="5">
+        <f t="shared" si="3"/>
+        <v>0.61041032815764473</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>233</v>
       </c>
@@ -7504,8 +8435,12 @@
       <c r="E235" s="2">
         <v>0.61466841737382993</v>
       </c>
-    </row>
-    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F235" s="5">
+        <f t="shared" si="3"/>
+        <v>0.61466841737382993</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>234</v>
       </c>
@@ -7521,8 +8456,12 @@
       <c r="E236" s="2">
         <v>0.61906070948135239</v>
       </c>
-    </row>
-    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F236" s="5">
+        <f t="shared" si="3"/>
+        <v>0.61906070948135239</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>235</v>
       </c>
@@ -7538,8 +8477,12 @@
       <c r="E237" s="2">
         <v>0.62354642326239973</v>
       </c>
-    </row>
-    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F237" s="5">
+        <f t="shared" si="3"/>
+        <v>0.62354642326239973</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>236</v>
       </c>
@@ -7555,8 +8498,12 @@
       <c r="E238" s="2">
         <v>0.62808624262970447</v>
       </c>
-    </row>
-    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F238" s="5">
+        <f t="shared" si="3"/>
+        <v>0.62808624262970447</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>237</v>
       </c>
@@ -7572,8 +8519,12 @@
       <c r="E239" s="2">
         <v>0.63264453892723915</v>
       </c>
-    </row>
-    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F239" s="5">
+        <f t="shared" si="3"/>
+        <v>0.63264453892723915</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>238</v>
       </c>
@@ -7589,8 +8540,12 @@
       <c r="E240" s="2">
         <v>0.63719109900586568</v>
       </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F240" s="5">
+        <f t="shared" si="3"/>
+        <v>0.63719109900586568</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>239</v>
       </c>
@@ -7606,8 +8561,12 @@
       <c r="E241" s="2">
         <v>0.6417022596087063</v>
       </c>
-    </row>
-    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F241" s="5">
+        <f t="shared" si="3"/>
+        <v>0.6417022596087063</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A242">
         <v>240</v>
       </c>
@@ -7623,8 +8582,12 @@
       <c r="E242" s="2">
         <v>0.64616143353624045</v>
       </c>
-    </row>
-    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F242" s="5">
+        <f t="shared" si="3"/>
+        <v>0.64616143353624045</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A243">
         <v>241</v>
       </c>
@@ -7640,8 +8603,12 @@
       <c r="E243" s="2">
         <v>0.65055908806335361</v>
       </c>
-    </row>
-    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F243" s="5">
+        <f t="shared" si="3"/>
+        <v>0.65055908806335361</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A244">
         <v>242</v>
       </c>
@@ -7657,8 +8624,12 @@
       <c r="E244" s="2">
         <v>0.65489228717717551</v>
       </c>
-    </row>
-    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F244" s="5">
+        <f t="shared" si="3"/>
+        <v>0.65489228717717551</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245">
         <v>243</v>
       </c>
@@ -7674,8 +8645,12 @@
       <c r="E245" s="2">
         <v>0.65916392850865324</v>
       </c>
-    </row>
-    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F245" s="5">
+        <f t="shared" si="3"/>
+        <v>0.65916392850865324</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246">
         <v>244</v>
       </c>
@@ -7691,8 +8666,12 @@
       <c r="E246" s="2">
         <v>0.66338179454423185</v>
       </c>
-    </row>
-    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F246" s="5">
+        <f t="shared" si="3"/>
+        <v>0.66338179454423185</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247">
         <v>245</v>
       </c>
@@ -7708,8 +8687,12 @@
       <c r="E247" s="2">
         <v>0.66755750597760755</v>
       </c>
-    </row>
-    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F247" s="5">
+        <f t="shared" si="3"/>
+        <v>0.66755750597760755</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248">
         <v>246</v>
       </c>
@@ -7725,8 +8708,12 @@
       <c r="E248" s="2">
         <v>0.67170542731651173</v>
       </c>
-    </row>
-    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F248" s="5">
+        <f t="shared" si="3"/>
+        <v>0.67170542731651173</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A249">
         <v>247</v>
       </c>
@@ -7742,8 +8729,12 @@
       <c r="E249" s="2">
         <v>0.67584154362179394</v>
       </c>
-    </row>
-    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F249" s="5">
+        <f t="shared" si="3"/>
+        <v>0.67584154362179394</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A250">
         <v>248</v>
       </c>
@@ -7759,8 +8750,12 @@
       <c r="E250" s="2">
         <v>0.67998231136876375</v>
       </c>
-    </row>
-    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F250" s="5">
+        <f t="shared" si="3"/>
+        <v>0.67998231136876375</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A251">
         <v>249</v>
       </c>
@@ -7776,8 +8771,12 @@
       <c r="E251" s="2">
         <v>0.68414349129821994</v>
       </c>
-    </row>
-    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F251" s="5">
+        <f t="shared" si="3"/>
+        <v>0.68414349129821994</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A252">
         <v>250</v>
       </c>
@@ -7793,8 +8792,12 @@
       <c r="E252" s="2">
         <v>0.68833899632520823</v>
       </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F252" s="5">
+        <f t="shared" si="3"/>
+        <v>0.68833899632520823</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253">
         <v>251</v>
       </c>
@@ -7810,8 +8813,12 @@
       <c r="E253" s="2">
         <v>0.69257982631587334</v>
       </c>
-    </row>
-    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F253" s="5">
+        <f t="shared" si="3"/>
+        <v>0.69257982631587334</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254">
         <v>252</v>
       </c>
@@ -7827,8 +8834,12 @@
       <c r="E254" s="2">
         <v>0.69687320081984527</v>
       </c>
-    </row>
-    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F254" s="5">
+        <f t="shared" si="3"/>
+        <v>0.69687320081984527</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255">
         <v>253</v>
       </c>
@@ -7844,8 +8855,12 @@
       <c r="E255" s="2">
         <v>0.70122202656762767</v>
       </c>
-    </row>
-    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F255" s="5">
+        <f t="shared" si="3"/>
+        <v>0.70122202656762767</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256">
         <v>254</v>
       </c>
@@ -7861,8 +8876,12 @@
       <c r="E256" s="2">
         <v>0.70562483799087394</v>
       </c>
-    </row>
-    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F256" s="5">
+        <f t="shared" si="3"/>
+        <v>0.70562483799087394</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257">
         <v>255</v>
       </c>
@@ -7878,8 +8897,12 @@
       <c r="E257" s="2">
         <v>0.71007632074428706</v>
       </c>
-    </row>
-    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F257" s="5">
+        <f t="shared" si="3"/>
+        <v>0.71007632074428706</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258">
         <v>256</v>
       </c>
@@ -7895,8 +8918,12 @@
       <c r="E258" s="2">
         <v>0.71456846877767322</v>
       </c>
-    </row>
-    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F258" s="5">
+        <f t="shared" si="3"/>
+        <v>0.71456846877767322</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259">
         <v>257</v>
       </c>
@@ -7912,8 +8939,12 @@
       <c r="E259" s="2">
         <v>0.71909233989786991</v>
       </c>
-    </row>
-    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F259" s="5">
+        <f t="shared" ref="F259:F322" si="4">E259</f>
+        <v>0.71909233989786991</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260">
         <v>258</v>
       </c>
@@ -7929,8 +8960,12 @@
       <c r="E260" s="2">
         <v>0.72364027401003339</v>
       </c>
-    </row>
-    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F260" s="5">
+        <f t="shared" si="4"/>
+        <v>0.72364027401003339</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261">
         <v>259</v>
       </c>
@@ -7946,8 +8981,12 @@
       <c r="E261" s="2">
         <v>0.72820834137916934</v>
       </c>
-    </row>
-    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F261" s="5">
+        <f t="shared" si="4"/>
+        <v>0.72820834137916934</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A262">
         <v>260</v>
       </c>
@@ -7963,8 +9002,12 @@
       <c r="E262" s="2">
         <v>0.73279871527949547</v>
       </c>
-    </row>
-    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F262" s="5">
+        <f t="shared" si="4"/>
+        <v>0.73279871527949547</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A263">
         <v>261</v>
       </c>
@@ -7980,8 +9023,12 @@
       <c r="E263" s="2">
         <v>0.73742163228104962</v>
       </c>
-    </row>
-    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F263" s="5">
+        <f t="shared" si="4"/>
+        <v>0.73742163228104962</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264">
         <v>262</v>
       </c>
@@ -7997,8 +9044,12 @@
       <c r="E264" s="2">
         <v>0.74209662382982533</v>
       </c>
-    </row>
-    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F264" s="5">
+        <f t="shared" si="4"/>
+        <v>0.74209662382982533</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265">
         <v>263</v>
       </c>
@@ -8014,8 +9065,12 @@
       <c r="E265" s="2">
         <v>0.7468527758880299</v>
       </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F265" s="5">
+        <f t="shared" si="4"/>
+        <v>0.7468527758880299</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266">
         <v>264</v>
       </c>
@@ -8031,8 +9086,12 @@
       <c r="E266" s="2">
         <v>0.75172788926822243</v>
       </c>
-    </row>
-    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F266" s="5">
+        <f t="shared" si="4"/>
+        <v>0.75172788926822243</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267">
         <v>265</v>
       </c>
@@ -8048,8 +9107,12 @@
       <c r="E267" s="2">
         <v>0.75676655371416623</v>
       </c>
-    </row>
-    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F267" s="5">
+        <f t="shared" si="4"/>
+        <v>0.75676655371416623</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A268">
         <v>266</v>
       </c>
@@ -8065,8 +9128,12 @@
       <c r="E268" s="2">
         <v>0.76201728726137952</v>
       </c>
-    </row>
-    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F268" s="5">
+        <f t="shared" si="4"/>
+        <v>0.76201728726137952</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A269">
         <v>267</v>
       </c>
@@ -8082,8 +9149,12 @@
       <c r="E269" s="2">
         <v>0.76752900640107047</v>
       </c>
-    </row>
-    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F269" s="5">
+        <f t="shared" si="4"/>
+        <v>0.76752900640107047</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A270">
         <v>268</v>
       </c>
@@ -8099,8 +9170,12 @@
       <c r="E270" s="2">
         <v>0.77334716480168864</v>
       </c>
-    </row>
-    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F270" s="5">
+        <f t="shared" si="4"/>
+        <v>0.77334716480168864</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A271">
         <v>269</v>
       </c>
@@ -8116,8 +9191,12 @@
       <c r="E271" s="2">
         <v>0.77950992403350783</v>
       </c>
-    </row>
-    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F271" s="5">
+        <f t="shared" si="4"/>
+        <v>0.77950992403350783</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A272">
         <v>270</v>
       </c>
@@ -8133,8 +9212,12 @@
       <c r="E272" s="2">
         <v>0.78604470217088718</v>
       </c>
-    </row>
-    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F272" s="5">
+        <f t="shared" si="4"/>
+        <v>0.78604470217088718</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A273">
         <v>271</v>
       </c>
@@ -8150,8 +9233,12 @@
       <c r="E273" s="2">
         <v>0.79296539454966652</v>
       </c>
-    </row>
-    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F273" s="5">
+        <f t="shared" si="4"/>
+        <v>0.79296539454966652</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A274">
         <v>272</v>
       </c>
@@ -8167,8 +9254,12 @@
       <c r="E274" s="2">
         <v>0.80027048583225746</v>
       </c>
-    </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F274" s="5">
+        <f t="shared" si="4"/>
+        <v>0.80027048583225746</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A275">
         <v>273</v>
       </c>
@@ -8184,8 +9275,12 @@
       <c r="E275" s="2">
         <v>0.80794218731778078</v>
       </c>
-    </row>
-    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F275" s="5">
+        <f t="shared" si="4"/>
+        <v>0.80794218731778078</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A276">
         <v>274</v>
       </c>
@@ -8201,8 +9296,12 @@
       <c r="E276" s="2">
         <v>0.8159466459644833</v>
       </c>
-    </row>
-    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F276" s="5">
+        <f t="shared" si="4"/>
+        <v>0.8159466459644833</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A277">
         <v>275</v>
       </c>
@@ -8218,8 +9317,12 @@
       <c r="E277" s="2">
         <v>0.82423518906941629</v>
       </c>
-    </row>
-    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F277" s="5">
+        <f t="shared" si="4"/>
+        <v>0.82423518906941629</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A278">
         <v>276</v>
       </c>
@@ -8235,8 +9338,12 @@
       <c r="E278" s="2">
         <v>0.83274649258767408</v>
       </c>
-    </row>
-    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F278" s="5">
+        <f t="shared" si="4"/>
+        <v>0.83274649258767408</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A279">
         <v>277</v>
       </c>
@@ -8252,8 +9359,12 @@
       <c r="E279" s="2">
         <v>0.84140949393853248</v>
       </c>
-    </row>
-    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F279" s="5">
+        <f t="shared" si="4"/>
+        <v>0.84140949393853248</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280">
         <v>278</v>
       </c>
@@ -8269,8 +9380,12 @@
       <c r="E280" s="2">
         <v>0.85014681611778864</v>
       </c>
-    </row>
-    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F280" s="5">
+        <f t="shared" si="4"/>
+        <v>0.85014681611778864</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A281">
         <v>279</v>
       </c>
@@ -8286,8 +9401,12 @@
       <c r="E281" s="2">
         <v>0.85887843564251243</v>
       </c>
-    </row>
-    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F281" s="5">
+        <f t="shared" si="4"/>
+        <v>0.85887843564251243</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A282">
         <v>280</v>
       </c>
@@ -8303,8 +9422,12 @@
       <c r="E282" s="2">
         <v>0.86752531590471815</v>
       </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F282" s="5">
+        <f t="shared" si="4"/>
+        <v>0.86752531590471815</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283">
         <v>281</v>
       </c>
@@ -8320,8 +9443,12 @@
       <c r="E283" s="2">
         <v>0.87601274411626107</v>
       </c>
-    </row>
-    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F283" s="5">
+        <f t="shared" si="4"/>
+        <v>0.87601274411626107</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284">
         <v>282</v>
       </c>
@@ -8337,8 +9464,12 @@
       <c r="E284" s="2">
         <v>0.88427315218791236</v>
       </c>
-    </row>
-    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F284" s="5">
+        <f t="shared" si="4"/>
+        <v>0.88427315218791236</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285">
         <v>283</v>
       </c>
@@ -8354,8 +9485,12 @@
       <c r="E285" s="2">
         <v>0.89224826729153384</v>
       </c>
-    </row>
-    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F285" s="5">
+        <f t="shared" si="4"/>
+        <v>0.89224826729153384</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286">
         <v>284</v>
       </c>
@@ -8371,8 +9506,12 @@
       <c r="E286" s="2">
         <v>0.8998905188304186</v>
       </c>
-    </row>
-    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F286" s="5">
+        <f t="shared" si="4"/>
+        <v>0.8998905188304186</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287">
         <v>285</v>
       </c>
@@ -8388,8 +9527,12 @@
       <c r="E287" s="2">
         <v>0.90716371271291574</v>
       </c>
-    </row>
-    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F287" s="5">
+        <f t="shared" si="4"/>
+        <v>0.90716371271291574</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A288">
         <v>286</v>
       </c>
@@ -8405,8 +9548,12 @@
       <c r="E288" s="2">
         <v>0.91404305674391684</v>
       </c>
-    </row>
-    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F288" s="5">
+        <f t="shared" si="4"/>
+        <v>0.91404305674391684</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A289">
         <v>287</v>
       </c>
@@ -8422,8 +9569,12 @@
       <c r="E289" s="2">
         <v>0.92051467185951863</v>
       </c>
-    </row>
-    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F289" s="5">
+        <f t="shared" si="4"/>
+        <v>0.92051467185951863</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A290">
         <v>288</v>
       </c>
@@ -8439,8 +9590,12 @@
       <c r="E290" s="2">
         <v>0.92657474528480332</v>
       </c>
-    </row>
-    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F290" s="5">
+        <f t="shared" si="4"/>
+        <v>0.92657474528480332</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A291">
         <v>289</v>
       </c>
@@ -8456,8 +9611,12 @@
       <c r="E291" s="2">
         <v>0.93222847566439959</v>
       </c>
-    </row>
-    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F291" s="5">
+        <f t="shared" si="4"/>
+        <v>0.93222847566439959</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292">
         <v>290</v>
       </c>
@@ -8473,8 +9632,12 @@
       <c r="E292" s="2">
         <v>0.93748893039905068</v>
       </c>
-    </row>
-    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F292" s="5">
+        <f t="shared" si="4"/>
+        <v>0.93748893039905068</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293">
         <v>291</v>
       </c>
@@ -8490,8 +9653,12 @@
       <c r="E293" s="2">
         <v>0.94237589057166438</v>
       </c>
-    </row>
-    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F293" s="5">
+        <f t="shared" si="4"/>
+        <v>0.94237589057166438</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294">
         <v>292</v>
       </c>
@@ -8507,8 +9674,12 @@
       <c r="E294" s="2">
         <v>0.94691471044738862</v>
       </c>
-    </row>
-    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F294" s="5">
+        <f t="shared" si="4"/>
+        <v>0.94691471044738862</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A295">
         <v>293</v>
       </c>
@@ -8524,8 +9695,12 @@
       <c r="E295" s="2">
         <v>0.95113517822611438</v>
       </c>
-    </row>
-    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F295" s="5">
+        <f t="shared" si="4"/>
+        <v>0.95113517822611438</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A296">
         <v>294</v>
       </c>
@@ -8541,8 +9716,12 @@
       <c r="E296" s="2">
         <v>0.95507034155077997</v>
       </c>
-    </row>
-    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F296" s="5">
+        <f t="shared" si="4"/>
+        <v>0.95507034155077997</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297">
         <v>295</v>
       </c>
@@ -8558,8 +9737,12 @@
       <c r="E297" s="2">
         <v>0.95875526073031481</v>
       </c>
-    </row>
-    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F297" s="5">
+        <f t="shared" si="4"/>
+        <v>0.95875526073031481</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298">
         <v>296</v>
       </c>
@@ -8575,8 +9758,12 @@
       <c r="E298" s="2">
         <v>0.96222567010319848</v>
       </c>
-    </row>
-    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F298" s="5">
+        <f t="shared" si="4"/>
+        <v>0.96222567010319848</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299">
         <v>297</v>
       </c>
@@ -8592,8 +9779,12 @@
       <c r="E299" s="2">
         <v>0.96551655860686847</v>
       </c>
-    </row>
-    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F299" s="5">
+        <f t="shared" si="4"/>
+        <v>0.96551655860686847</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300">
         <v>298</v>
       </c>
@@ -8609,8 +9800,12 @@
       <c r="E300" s="2">
         <v>0.96866071596804504</v>
       </c>
-    </row>
-    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F300" s="5">
+        <f t="shared" si="4"/>
+        <v>0.96866071596804504</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A301">
         <v>299</v>
       </c>
@@ -8626,8 +9821,12 @@
       <c r="E301" s="2">
         <v>0.97168732295792581</v>
       </c>
-    </row>
-    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F301" s="5">
+        <f t="shared" si="4"/>
+        <v>0.97168732295792581</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A302">
         <v>300</v>
       </c>
@@ -8643,8 +9842,12 @@
       <c r="E302" s="2">
         <v>0.97462068627935527</v>
       </c>
-    </row>
-    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F302" s="5">
+        <f t="shared" si="4"/>
+        <v>0.97462068627935527</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A303">
         <v>301</v>
       </c>
@@ -8660,8 +9863,12 @@
       <c r="E303" s="2">
         <v>0.97747922538852805</v>
       </c>
-    </row>
-    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F303" s="5">
+        <f t="shared" si="4"/>
+        <v>0.97747922538852805</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A304">
         <v>302</v>
       </c>
@@ -8677,8 +9884,12 @@
       <c r="E304" s="2">
         <v>0.98027480636652886</v>
       </c>
-    </row>
-    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F304" s="5">
+        <f t="shared" si="4"/>
+        <v>0.98027480636652886</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305">
         <v>303</v>
       </c>
@@ -8694,8 +9905,12 @@
       <c r="E305" s="2">
         <v>0.98301249207928976</v>
       </c>
-    </row>
-    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F305" s="5">
+        <f t="shared" si="4"/>
+        <v>0.98301249207928976</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306">
         <v>304</v>
       </c>
@@ -8711,8 +9926,12 @@
       <c r="E306" s="2">
         <v>0.98569074274302426</v>
       </c>
-    </row>
-    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F306" s="5">
+        <f t="shared" si="4"/>
+        <v>0.98569074274302426</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307">
         <v>305</v>
       </c>
@@ -8728,8 +9947,12 @@
       <c r="E307" s="2">
         <v>0.98830206372816642</v>
       </c>
-    </row>
-    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F307" s="5">
+        <f t="shared" si="4"/>
+        <v>0.98830206372816642</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308">
         <v>306</v>
       </c>
@@ -8745,8 +9968,12 @@
       <c r="E308" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F308" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309">
         <v>307</v>
       </c>
@@ -8762,8 +9989,12 @@
       <c r="E309" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F309" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310">
         <v>308</v>
       </c>
@@ -8779,8 +10010,12 @@
       <c r="E310" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F310" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311">
         <v>309</v>
       </c>
@@ -8796,8 +10031,12 @@
       <c r="E311" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F311" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312">
         <v>310</v>
       </c>
@@ -8813,8 +10052,12 @@
       <c r="E312" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F312" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313">
         <v>311</v>
       </c>
@@ -8830,8 +10073,12 @@
       <c r="E313" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F313" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314">
         <v>312</v>
       </c>
@@ -8847,8 +10094,12 @@
       <c r="E314" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F314" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315">
         <v>313</v>
       </c>
@@ -8864,8 +10115,12 @@
       <c r="E315" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F315" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A316">
         <v>314</v>
       </c>
@@ -8881,8 +10136,12 @@
       <c r="E316" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F316" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A317">
         <v>315</v>
       </c>
@@ -8898,8 +10157,12 @@
       <c r="E317" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F317" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318">
         <v>316</v>
       </c>
@@ -8915,8 +10178,12 @@
       <c r="E318" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F318" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319">
         <v>317</v>
       </c>
@@ -8932,8 +10199,12 @@
       <c r="E319" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F319" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320">
         <v>318</v>
       </c>
@@ -8949,8 +10220,12 @@
       <c r="E320" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F320" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321">
         <v>319</v>
       </c>
@@ -8966,8 +10241,12 @@
       <c r="E321" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F321" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322">
         <v>320</v>
       </c>
@@ -8983,8 +10262,12 @@
       <c r="E322" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F322" s="5">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323">
         <v>321</v>
       </c>
@@ -9000,8 +10283,12 @@
       <c r="E323" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F323" s="5">
+        <f t="shared" ref="F323:F367" si="5">E323</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324">
         <v>322</v>
       </c>
@@ -9017,8 +10304,12 @@
       <c r="E324" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F324" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A325">
         <v>323</v>
       </c>
@@ -9034,8 +10325,12 @@
       <c r="E325" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F325" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A326">
         <v>324</v>
       </c>
@@ -9051,8 +10346,12 @@
       <c r="E326" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F326" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A327">
         <v>325</v>
       </c>
@@ -9068,8 +10367,12 @@
       <c r="E327" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F327" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A328">
         <v>326</v>
       </c>
@@ -9085,8 +10388,12 @@
       <c r="E328" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F328" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329">
         <v>327</v>
       </c>
@@ -9102,8 +10409,12 @@
       <c r="E329" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F329" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330">
         <v>328</v>
       </c>
@@ -9119,8 +10430,12 @@
       <c r="E330" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F330" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331">
         <v>329</v>
       </c>
@@ -9136,8 +10451,12 @@
       <c r="E331" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F331" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332">
         <v>330</v>
       </c>
@@ -9153,8 +10472,12 @@
       <c r="E332" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F332" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333">
         <v>331</v>
       </c>
@@ -9170,8 +10493,12 @@
       <c r="E333" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F333" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A334">
         <v>332</v>
       </c>
@@ -9187,8 +10514,12 @@
       <c r="E334" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F334" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A335">
         <v>333</v>
       </c>
@@ -9204,8 +10535,12 @@
       <c r="E335" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F335" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A336">
         <v>334</v>
       </c>
@@ -9221,8 +10556,12 @@
       <c r="E336" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F336" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A337">
         <v>335</v>
       </c>
@@ -9238,8 +10577,12 @@
       <c r="E337" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F337" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338">
         <v>336</v>
       </c>
@@ -9255,8 +10598,12 @@
       <c r="E338" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F338" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A339">
         <v>337</v>
       </c>
@@ -9272,8 +10619,12 @@
       <c r="E339" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F339" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A340">
         <v>338</v>
       </c>
@@ -9289,8 +10640,12 @@
       <c r="E340" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F340" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A341">
         <v>339</v>
       </c>
@@ -9306,8 +10661,12 @@
       <c r="E341" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F341" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342">
         <v>340</v>
       </c>
@@ -9323,8 +10682,12 @@
       <c r="E342" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F342" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343">
         <v>341</v>
       </c>
@@ -9340,8 +10703,12 @@
       <c r="E343" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F343" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344">
         <v>342</v>
       </c>
@@ -9357,8 +10724,12 @@
       <c r="E344" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F344" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345">
         <v>343</v>
       </c>
@@ -9374,8 +10745,12 @@
       <c r="E345" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F345" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346">
         <v>344</v>
       </c>
@@ -9391,8 +10766,12 @@
       <c r="E346" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F346" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347">
         <v>345</v>
       </c>
@@ -9408,8 +10787,12 @@
       <c r="E347" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F347" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348">
         <v>346</v>
       </c>
@@ -9425,8 +10808,12 @@
       <c r="E348" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F348" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349">
         <v>347</v>
       </c>
@@ -9442,8 +10829,12 @@
       <c r="E349" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F349" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A350">
         <v>348</v>
       </c>
@@ -9459,8 +10850,12 @@
       <c r="E350" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F350" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A351">
         <v>349</v>
       </c>
@@ -9476,8 +10871,12 @@
       <c r="E351" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F351" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A352">
         <v>350</v>
       </c>
@@ -9493,8 +10892,12 @@
       <c r="E352" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F352" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A353">
         <v>351</v>
       </c>
@@ -9510,8 +10913,12 @@
       <c r="E353" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F353" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354">
         <v>352</v>
       </c>
@@ -9527,8 +10934,12 @@
       <c r="E354" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F354" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A355">
         <v>353</v>
       </c>
@@ -9544,8 +10955,12 @@
       <c r="E355" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F355" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A356">
         <v>354</v>
       </c>
@@ -9561,8 +10976,12 @@
       <c r="E356" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F356" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357">
         <v>355</v>
       </c>
@@ -9578,8 +10997,12 @@
       <c r="E357" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F357" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358">
         <v>356</v>
       </c>
@@ -9595,8 +11018,12 @@
       <c r="E358" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F358" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359">
         <v>357</v>
       </c>
@@ -9612,8 +11039,12 @@
       <c r="E359" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F359" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A360">
         <v>358</v>
       </c>
@@ -9629,8 +11060,12 @@
       <c r="E360" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F360" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A361">
         <v>359</v>
       </c>
@@ -9646,8 +11081,12 @@
       <c r="E361" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F361" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362">
         <v>360</v>
       </c>
@@ -9663,8 +11102,12 @@
       <c r="E362" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F362" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363">
         <v>361</v>
       </c>
@@ -9680,8 +11123,12 @@
       <c r="E363" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F363" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364">
         <v>362</v>
       </c>
@@ -9697,8 +11144,12 @@
       <c r="E364" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F364" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365">
         <v>363</v>
       </c>
@@ -9714,8 +11165,12 @@
       <c r="E365" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F365" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366">
         <v>364</v>
       </c>
@@ -9731,8 +11186,12 @@
       <c r="E366" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="367" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F366" s="5">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367">
         <v>365</v>
       </c>
@@ -9746,6 +11205,10 @@
         <v>-9.2460262135552786E-6</v>
       </c>
       <c r="E367" s="2">
+        <v>1</v>
+      </c>
+      <c r="F367" s="5">
+        <f t="shared" si="5"/>
         <v>1</v>
       </c>
     </row>
